--- a/data/hotels_by_city/Dallas/Dallas_shard_199.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_199.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="340">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>bejealous07</t>
   </si>
   <si>
     <t>05/29/2018</t>
@@ -200,6 +203,9 @@
 My husband and I had to call Choice Hotels and file two official complaints before Heena even decided to take our calls and half...I am only giving this place a star because I have to.My husband and I went out for a fun date night and wanted to stay the night in a hotel and just spend a fun and easy night together.We call to make a reservation and advised the front desk we would pay in cash upon arrival. They advised they needed to have a card on file to hold the room. My husband gave them his debit card# and it got declined - we thought that was weird, but okay. We then used my credit card to hold the room. When we arrived, my husband paid them the cash for the room and was advised no charges were made to the room.WRONGThey actually charged my husbands debit card AND charged my credit card - not once, but TWICE for this room. They also charged my husband for the incorrect amount.The management was the ABSOLUTE WORST at getting this issue resolved. We were advised by the assistant manager Heena that we would need to speak with a Peter and he would be in the office from 9:30-11 am. I would call- and every time he would have left by 11am. At one point, an employee advised there was no manager named Peter.My husband and I had to call Choice Hotels and file two official complaints before Heena even decided to take our calls and half listen to us. We were also advised that Heena was in fact - the manager who could handle all of this.After having a $97 hold on my husbands card and a $160 hold on mine, plus the $85 we spent on the room, this hotel was looking at making a profit of almost $350.DO NOT - I REPEAT - DO NOT STAY HERE.This manager Heena is an absolute joke and should be fired for lying to their customers. We have tried for weeks to speak with them and have them refund our initial stay since their screw up cost us not to buy groceries for three weeks for our children and she has refused to communicate or make anything write.After filing so many complaints - she finally released the holds on mine and my husbands cards btw - took three weeks - but she finally did it - even though she lied and said she couldn't.So if you want to get screwed out of your money - DO NOT STAY HEREMore</t>
   </si>
   <si>
+    <t>J B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r513676679-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -231,6 +237,9 @@
 If you are not desperate for a...Arrived and found the place ok. The day time lady receptionist was miserable. She did not smile. She was rude in her delivery when speaking, all in all if she hates the job ( she displays that she does) she should leave and give someelse a chance of a job. The man in the afternoon shift wasn't much better but at least he sort of smiled. These people have to remember customers pay their salaries. A fact they appear to have forgotten. They also seem to forget there are loads of other hotels around this area so customers have a choice and don't need them or their hotel The room. Is ok and basic. No carpet on the floor, it has a type of false wood covering stuck on the floor. This is really dangerous when you step out of the shower with wet feet I nearly slide across the room and caused my self a lot of pain. Room cleanliness is ok. However out in the hall the carpet was very sticky and was horrible to walk on. The carpet in the hall was covered in mess. Miss miserable from downstairs saw This she. She came up stairs for her break step over it and walked into the staff room. She appeared to be not bothered about the mess. The room was supposed to be no smoking yet it stunk of smoke. If you are not desperate for a place to stay avoid this place there are plenty of other hotel around here who I am sure what your custom and give better service and value for money.More</t>
   </si>
   <si>
+    <t>godwetrust2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r505667286-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -255,6 +264,9 @@
     <t>unwelcoming at the desk. customer service iis not there. the agent spoke rudely with my partner just because the name on the reservation was miss spelled with an extra letter. the corridors had a musty scent that gave me a migrane. did not have a good night rest due to the lack of good ac. it was sweaty in the room and the ac made a loud noise. i requested to change rooms but the same gentleman refused since it was 30 mins after check in. never have i have been told of such policy. morning of the next day my partner was greeted with 3 roaches in the tub. we refused to shower there and checked out with a complaint to the manager regarding our visit.More</t>
   </si>
   <si>
+    <t>JRsNeighbor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r505461861-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>We booked a double room last minute due to a power outage at our house. The room was a little beat up but overall clean. The beds are not as comfortable as I would have hoped and quite standard. The pillows are thin. There is a small area for a free breakfast. For the price, (insanely cheap) you can't beat it. You can hear a bit of road noise due to the close proximity to the highway but it wasn't terrible. Our check-in and out was very fast and parking was extremely close. if you are staying just a few hours and need a place for a shower and sleep then it's worth the price.More</t>
   </si>
   <si>
+    <t>Sfxmanager</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r498237616-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>Checked in at Midnight first thing when I got out of car was that Hotel Manager came from a car in the Parking area. Manager didn't have on a Econo Lodge Shirt or Polo. Check-in was fast and easy being a Choice Rewards member.  When walking to room 121 the halls smelled of the smoke. Room 121 was nice easy to access, bed was comfortable, but you could hear the room next door/above you/outside your window..  I had expected it to be quieter hotel due to the businesses in the areaMore</t>
   </si>
   <si>
+    <t>LuAnn3353</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r486551694-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>I apparently signed up for a smoking room online and wasn't aware of it.  I was glad that there was no carpeting in the room.  The bed was very comfortable and I got 3 good night's sleep on it.  I was going to look for another hotel because of the smoking room, but, after I slept well, I decided to stay.  The bedding was very clean.  The shower was huge, really like it.  The breakfast buffet was adequate, but would have been nice if there was some yogurt and fresh fruit.  There was two kind of juices, coffee, cereal, waffles, toast and danish.More</t>
   </si>
   <si>
+    <t>rbtelee1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r479244720-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>Hotel installed laminate flooring over old flooring and it is coming up and not a good job at all with gaps, etc. Installed without putting tape down first. Outlet between beds didn't work. Tried to give us a computer power cord as an extension cord. What they did end up giving us did not work. NO alarm clock in room. Smoky smell even in non-smoking area. Filthy hotel.More</t>
   </si>
   <si>
+    <t>Jonesnco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r466680234-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -381,6 +405,9 @@
     <t>Dirty sheets, dirty room, stink of smoke in the non-smoking rooms, apathetic staff...everything in the previous negative reviews is true.  I left after I saw the room.  I ended up driving two miles to another Choice Hotel off the tollway.  It is twice the price but 10 times better.More</t>
   </si>
   <si>
+    <t>prov6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r435448645-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>JoyaTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r385495432-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -417,6 +447,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>milehigh39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r380620009-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -435,6 +468,9 @@
     <t>Arrived late Monday evening,TV did not work, remote cover missing could not turn in TV manually.Thermostat knob missing, could not adjust temp.Floors sticky.areaumdr TV set was dusty.scared to have any water.No brochures or phone book in room to find food for delivery.Bed felt like sleeping on a cot., could hear neighbors snoring.Felt like I was in a dorm in college.Was scheduled for two days, I checked out at 7 am to go elsewhere..This is a 19.99 per night rental if any.nI use Choice hotels many times and this is horrible,Advised person at front desk of problems, took notes and seemed as if oh well we got your money anyway.Internet did not appear to work.Room fridge would not cool beverages and had musty smell.More</t>
   </si>
   <si>
+    <t>Kon469</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r373508246-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -456,6 +492,9 @@
     <t>I prepaid for my stay two weeks in advance. They changed my room to a smoking on the first night and the second night I discovered bedbugs in my room! Ew! I notified the front desk and the night auditor's reaction let me know that this was not a new situation. The assistant manage was informed about the bedbugs and never tried to resolve the issue. The housekeepers made the beds and room up for resale knowing the situation. To make matters WORST, I've been contacting Choice Privileges since 05/07 for some resolve on this issue and all I've received is extremely long hold times, attitude, and the run around. Today alone, I held thirty minutes only for a rep named Walter to talked over me then hung up on me twice. Please don't waste your time with Choice Privileges and definitely not Econo Lodge.More</t>
   </si>
   <si>
+    <t>Angela B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r371721620-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -472,6 +511,9 @@
   </si>
   <si>
     <t>Check in was fast &amp; simple. A hold on my credit card over the amount of the regular charges. I went to the front desk &amp; was told the hold 10% over the regular charges &amp; a $50 incidental fee. I was shocked they would think that people would cause damage to the already damaged room. There were no drawers in the dresser. The closet door doesn't open &amp; I peeked through the crack &amp; it looks pretty scary. The tv worked but there's no guide so I couldn't tell what channel I was watching. The microwave &amp; fridge were in good condition. The room is the smallest room I've been in. I believe my balcony cabin on the cruise was larger. The ceiling &amp; wall had lots of patchwork. I wanted some free breakfast &amp; went to the lobby. I was not comfortable with the looks. I tried the coffee &amp; im sure it was mixed with urine or at least tasted nasty &amp; smelled like it. It also had a cloudy color. I went down the street for breakfast. Overall I think the rate should be cheaper, at least $40/night not $60. I travel a lot &amp; this was a pretty bad stay.More</t>
+  </si>
+  <si>
+    <t>Adam W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r370426163-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
@@ -504,6 +546,9 @@
 I paid for a budget hotel, so I wasn't expecting five stars, but there were definitely some room issues. In my room the air felt damp and there was a pretty bad smell that even strong air freshener couldn't overpower. I didn't want more air freshener, so I didn't make an issue out of this with the management. I am thinking it was probably coming from the...I was attending a business conference at the Renaissance just down the street, but decided to save money by staying here instead. (Stayed 3 nights)LOCATION:The hotel is located just off the highway, so it is not too hard to head either direction from this location. Note that rush hour traffic is very heavy in this area, so make sure your event is North if you are traveling during rush hour. There is a light rail just behind the hotel, but it is an electric train, so the noise is pretty minimal. It also does not sound a horn at the nearby crossing, so it did not bother me even though I am a light sleeper and was in a room facing the tracks.STAFF:I found the staff to be very helpful, cheerful, and responsive to issues. They replaced a light bulb right away, and noted a problem with the refrigerator when I brought it to their attention as I left. Definitely above average when it comes to customer service.ROOM:I paid for a budget hotel, so I wasn't expecting five stars, but there were definitely some room issues. In my room the air felt damp and there was a pretty bad smell that even strong air freshener couldn't overpower. I didn't want more air freshener, so I didn't make an issue out of this with the management. I am thinking it was probably coming from the carpet, but I wasn't going to put my nose in it to find out.  :-)  There was some damage to walls, curtains, furniture and the AC unit, but it was adequate for myself and another guy on a business trip.On a positive note, there were definitely upgrades being made. The florescent bulb was replaced with LED, the counter and fixtures were new, and the shower was new and quite nice. I think some of the rooms in the lower level have been remodeled recently as well, but this one obviously hadn't been finished yet.SUMMARY:I wouldn't take my wife here, but for a couple guys on a business trip, the location and the price was right. With the upgrades and remodeling in progress, this might improve a lot over the next few years, and I would definitely consider staying here again.More</t>
   </si>
   <si>
+    <t>Alexandria T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r367573963-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -522,6 +567,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>ashgin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r357720502-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -543,6 +591,9 @@
     <t>I stayed at the Econo Lodge when I was visiting for an academic conference at UTD in Feb '16. I was very skeptical after reading the reviews but found the place to be value for the money. Yes, you have a highway on one end and a light rail line on the other end - so the place can be inconvenient for light sleepers. I was mentally prepared for it and hence this did not bother me. Probably the fact that I was jet lagged also helped. The breakfast spread was not great, but you had coffee, bread, muffins, danish and there was a waffle maker - I think this was great considering the per day rate they charge! Also, I found Gary to be very helpful, contrary to what is mentioned in the other reviews. Overall, I would recommend the place for someone who needs a decent budget place to sleep.More</t>
   </si>
   <si>
+    <t>Hockeyboy37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r355128239-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -558,6 +609,9 @@
     <t>As I look to find my way to my next home, I have been residing here for over a month.  At first, my choice was questionable, BUT...from then until now, I have to say, this has been an excellent motel for what they offer!  When you remember you are booking at an economic level, that makes all the difference.  If frills are needed, check elsewhere.  The desk and housekeeping staff have been GREAT!</t>
   </si>
   <si>
+    <t>Garrick W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r325265909-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -579,6 +633,9 @@
     <t>From the stained carpets, to the damaged rooms with holes in the walls and damaged appliances/furniture to the ridiculous excuse for breakfast and borderline rude staff this place is one of the worst hotels I've stayed at.  Was in town for a wedding and another groomsman booked the place so I was stuck for three long days.  The smoking rooms were not separate so the whole hotel was smokey.  50$/day was twice what this place should've been.  Breakfast was Frosted Flakes, prepackaged muffins, coffee and juice that was out and not restocked 2/3 days.  The showers had mold in the door frame.   The toilet was old and needy resetting after every other use.  I literally can't describe the other residents - it was clear people lived there.  Simply the worstFor families- go anywhere else-motel 6 had to be better.  The flag, econolodge, should be embarrassed by the horrible quality put forward by this location.  It literally probably has a 'by the hour' rate More</t>
   </si>
   <si>
+    <t>13bedbugz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r320845859-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -600,6 +657,9 @@
     <t>The rooms are small, BUT they are clean, smell wonderful, stylish, comfortable.  It is quiet there at night.  and in the Mornings it is like a family.  Brian does not come off like a GM he comes off more like the friends u have at home. He will talk to youu about sports, and always ask if you need anything.  He does not mind running and getting you a towel if the maids are off either.  There are 2 lounge areas and it is nice to have a homey type area to sit and visit in.   The maids speak English too and seem to mind you being there, plus they are nice.  The employees here seem like a blended family!  Plus you are next to the Dart Rail,  a Walking and Biking Trail sits behind.  It is pet friendly and just a $25 deposit.   The gym is as good as I have seen in fancy hotels.  They have Coffee 24/7... Ya can't go wrong!   Oh and Gary looks real serious but you can see in his eyes he has a great sense of humor and a kind heart.More</t>
   </si>
   <si>
+    <t>Greg P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r317207951-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -615,6 +675,9 @@
     <t>Low priced hotel in need of some attention.  Staff was OK, room was small and had some issues.  Musty smell from the AC, the desk chair was not stable, the tack strip separating the carpet from the tile in the bathroom was exposed, and painful when I stepped on it, the closet door would not close.  The shower door would not close, although the shower capsule was not like anything I had seen before and was a nice design.</t>
   </si>
   <si>
+    <t>Ryan V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r255220632-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -636,6 +699,9 @@
     <t>I fully understand the market segment that Econolodge fills; the target guest that it appeals to. And no doubt there are a great many properties that do well at meeting this demand. That being said, my colleague and I stayed here one night due to a reservation mistake at our hotel of choice (it was a user error on our part.) Upon entering this Econolodge location I immediately smelled an odor reminiscent of strong chemicals. Almost as if the lobby and hallway were dowsed in cleaner. My room, standing in stark contrast to the hallway and lobby, was over saturated with air freshener. The room itself (along with the rest of the property, from what I could tell) had not been renovated in quite some time. This is no problem, as not every property has this luxury. However, when there are cracks in the shower floor and wallpaper and carpeting peeling off of the walls and foundation, it causes cleanliness issues, usability issues, and sometimes safety hazards. There are better properties in this are that can be sought out for reasonable prices. Skip this. More</t>
   </si>
   <si>
+    <t>Daniel C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r254884033-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -645,6 +711,9 @@
     <t>02/18/2015</t>
   </si>
   <si>
+    <t>Helena G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r253277126-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -663,6 +732,9 @@
     <t>I've recently stayed here with some family and there's just nothing really good about it. when you walk in you can already smell cigarettes the drawers are crooked, when you go upstairs there's a dip in the floor and if you're downstairs you can hear everyone walking upstairs-no sleep whatsoever. Temple Texas twist horrifying there is barely nothing all you had was muffins from still looking cereal and the milk was in a gallon bottle everyone practically shared. The toilet wasn't  hinged on right, the shower leaked and when the water came out of the shower head it was hard and unevenly squirting. Don't stay here unless you wanna hear people comment on how it smells like weed.More</t>
   </si>
   <si>
+    <t>Eric K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r193443442-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -684,6 +756,9 @@
     <t>I recently stayed in Richardson, because I needed to do a show in Frisco, Texas. It was only a 30 minute drive, and I didn't need to be there until afternoon, so it worked out great. Very helpful staff, Gary, made it a speedy check-in when I arrived in the afternoon. Very nice room, clean, and felt at peace when I got there. Even drank some fresh coffee from lobby. Didn't visit any restaurants, I was tired from drive from San Antonio. In the morning, I ate breakfast, continental. Easy and fast service when I checked out with Brian. Highway was very accessible, to get to where I needed to go, north. Also, loved the shower, this facility used to be a Sleep Inn Suites Hotel.More</t>
   </si>
   <si>
+    <t>Donna L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r172842202-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -696,6 +771,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>RogerTheChipGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r172135395-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -709,6 +787,9 @@
   </si>
   <si>
     <t>What do you expect for $54....Plusses: It was inexpensive and near the freeway. Bed was clean. Had a refrigerator in the room. Minuses: Ice machine didn't work (at least the two times I tried it). Juice machine didn't work. Stairs were narrow. Shower door wouldn't close. Hole in the wall near vanity(about the size of a coathook, which was probably hung there). Breakfast was cereal, danish and toast and they were almost out of milk (there may have been more in the back). If you're passing through or on a business trip it's okay. I wouldn't take a family there.</t>
+  </si>
+  <si>
+    <t>Melinda W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r158344400-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
@@ -741,6 +822,9 @@
 *when you flush the...Let me begin with stating due to current circumstances, I was left with no choice but to lodge at this hotel. This is my 5th week here in this Awful place. The daytime staff is very nice and chipper...to say the least. However,  the night shift employees are exteamly uncouth! Two employees seem to alternate during the week. One, sleeps the whole time. If you need your key card reprogramed, its like waking a beast. His eyes are always bloodshot like he smoked an ounce of marijuana before work. The second employee lacks manners and is a far cry from polite. If you do decide to stay here, do try to refrain from any and all complaints as you will end up with a finger in your face whilst being barked at. Dont even try and explain yourself to this one...he obviously is uneducated and probably wont understand what you are saying anyway. It will only result in you being insulted and laughed at. After him not understanding me I obviously told him he didnt n began reiterating myself only to be cursed and yelled at. I can go on for ages about how insulting he is, but im sure you get the point..total lack of respect..The rooms...So when you first walk in the room doesnt aplear to be all that bad....until..*you close the door and find a gaping hole in the wall*when you flush the toilet water floods the bathroom*The ac works sometimes..however im not sure if id want mold, mildew and whatever else circulating through the room.*you go to take a shower and find the shower head covered in mold and mildew.*blood stains, burnholes and tears in the linen*only half the lighting works*slow slow slow internet*dust EVERYWHERE*outlets that shock you when you ATTEMPT to plug something in...yes, attempt...the devices never remain plugged in and fall out of the socket.*The power goes out frequentlyNow for the rest...yes..more!Unless you are a heavy sleeper, youll never sleep. Doors are being slammed NON STOP! There are always parties in the parking lot. The glass was smashed out of the side door. You hear couples arguing loudly all night. To sum it up...you would have to be ABSOLUTELY PSYCHOTIC to stay here. If you are like me and have a pet (I have a 3lb chi) and are left with no other option but to stay here, PLEASE do NOT bring your children. I will try to post pics along with my review.More</t>
   </si>
   <si>
+    <t>randy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r153698865-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -762,6 +846,9 @@
     <t>conventionality located just feet from a busy highway and on the other side is a train that runs all night! no sleep!don't get a room near the lobby on the first floor or you will have the pleasure of hearing patrons fight over the last 3 day old bagel at the continental breakfast from 6am - 10amkeys never work, i know this can be a problem at many places but  here i had to get my key redone 12 times on a 2 day stay. when you walk in the front door it smells like a smoking facility, sheets had cigarette burns throughout.turned on the AC and cigarette ashes blew out in a non smoking room i was able to change roomsthen they gave us a room that was still being cleaned but that was just an honest mistake. good things: staff was nice because they knew the place sucks and they seem used to dealing with  problems , room was cheap, if you do stay here... dont!More</t>
   </si>
   <si>
+    <t>MrUniqueBond</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r151501025-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -780,6 +867,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>coquiOmaha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r132945787-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -798,6 +888,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>MITEMAN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r63733933-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -816,6 +909,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>memawvicki</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r42710330-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -834,6 +930,9 @@
     <t>September 2009</t>
   </si>
   <si>
+    <t>falbertoh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r22984331-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -855,6 +954,9 @@
     <t>I stayed here with my brother back in October.  I had read the reviews stating how the property had been renovated and with having to stay in hotel for 10 days for training we decided to take a chance and save some money by staying there.  BIG MISTAKE!  The room was fine, I don't need 5 star treatment to be happy.  It would have been nice if the toilet didn't run off and on all night but we would survive.  About half way through our stay I realized I was missing a blanket in my bed.  I asked the maid for a blanket and it was there that night.  That would have been great service if the blanket hadn't been infested with bed bugs.  I woke up the next morning covered in bites.  I had bites allover my body from my neck down.  They moved my room and while that one didn't have bed bugs the bathroom door didn't close and the shower door had a hole.  The next day the sores got worse, made training unbearable and I was forced to seek medical help.  By the time I got back to the room I had had enough, packed up my belongings and left.  I would have left it at that but they decided to charge me for my full stay and never even contacted me to apologize or make amends.  I contacted the hotel but all I have recieved...I stayed here with my brother back in October.  I had read the reviews stating how the property had been renovated and with having to stay in hotel for 10 days for training we decided to take a chance and save some money by staying there.  BIG MISTAKE!  The room was fine, I don't need 5 star treatment to be happy.  It would have been nice if the toilet didn't run off and on all night but we would survive.  About half way through our stay I realized I was missing a blanket in my bed.  I asked the maid for a blanket and it was there that night.  That would have been great service if the blanket hadn't been infested with bed bugs.  I woke up the next morning covered in bites.  I had bites allover my body from my neck down.  They moved my room and while that one didn't have bed bugs the bathroom door didn't close and the shower door had a hole.  The next day the sores got worse, made training unbearable and I was forced to seek medical help.  By the time I got back to the room I had had enough, packed up my belongings and left.  I would have left it at that but they decided to charge me for my full stay and never even contacted me to apologize or make amends.  I contacted the hotel but all I have recieved is the run around and empty promises.  I am now considering legal action to recoup my hotel and medical charges.  Spend the extra money and stay elsewhere.More</t>
   </si>
   <si>
+    <t>Kristin1023</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r19864931-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -870,6 +972,9 @@
     <t>The EconoLodge...when through a Renovation my room included 32 LCD TV, new beds, new carpet and comforter...Everyone should try this hotel.....You will be surprised!</t>
   </si>
   <si>
+    <t>SpellAmarillo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r13833077-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -891,6 +996,9 @@
     <t>We stayed in this hotel last week and it was the worst hotel I have been in- ever. They are going through a remodel and there was dust and plastic over everything in the lobby. Originally, we thought if they were going through a remodel that the rooms were probably OK and they would put us in a remodeled room. Wrong! Our room was recently painted (within 48 hours). You could tell by the smell. However, painters had walked through the paint and our carpet was covered in paint footprints. The comforter had cigarette burn holes in them. The bathroom sink was stained and wouldn't drain. The most nasty thing was the shower. It looked OK from the outside, but when you got in, there was at least an inch of mold all the way around the shower door. I thought I would die. I stood on a washcloth while taking  a shower for our business conference that day. The rooms going down the hall didn't seem much better. The wireless internet was out, and there was no place for the "continental breakfast" so you had to eat it in your nasty room. As I said, choose somewhere else and avoid this horrible property. I called and registered a complaint with the company.More</t>
   </si>
   <si>
+    <t>newbydd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r12990866-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1020,9 @@
     <t>Pardon the pun, but this hotel was anything but "suite"!  What's the saying......"you get what you pay for"?   I didn't have high expectations as I knew this was nothing fancy by the price of the room.  I was just looking for a place to stay for a couple of nights while attending a seminar at the Rennaissance Hotel, just a couple of blocks away.  This hotel is obviously an older hotel.  The room, as well as the hotel lobby, was dark and dingy and had a stale, musty odor.   They were, however, doing some remodeling so maybe it will be better for future guests.  During this stay though, I was not impressed.More</t>
   </si>
   <si>
+    <t>reggieRichardson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r8119489-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -931,6 +1042,9 @@
   </si>
   <si>
     <t>We were only in the hotel for one hour. It was awful. The corridors reeked of cigarettes. The non smoking room smelled just as bad. The room was very hot, the air conditioner was old and weak. In the room, the bed headboard had fallen to the floor,  leaving screws in the wall over the bed, torn off wallpaper, patched holes, missing pictures accented the walls, the shower door did not latch closed and the shower fixtures were broken off.All of this for 49.99 plus tax. The desk clerk attempted to give us another room, but it just smelled so bad in the hotel that we declined. We were denied cancellation of the room, and were told they did not issue credits or refunds. We left and stayed in another hotel.More</t>
+  </si>
+  <si>
+    <t>TBoneTX</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r4741324-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
@@ -964,6 +1078,9 @@
 What ruined everything was the overly aggressive housekeeping.  On Saturday morning, I had a "do not disturb" sign placed on my door.  The housekeeper pounded on the door, shouting "Housekeeping!"
 I returned that evening and found that my items had been moved around on the room's desk (there was no reason for this to be done) and that a high-quality hand-towel -- my own property -- had been taken out of my shaving-kit.  I was disturbed by this, but worse was to come.
 On Sunday morning, I was in the bathroom involved...I stayed in this EconoLodge (previously a Sleep Inn, and this wasn't clear via ANY web-search -- required a phone call to the motel) for two nights in March 2004 -- check-in Friday afternoon, checkout Sunday morning.The motel is on a highway feeder, and northbound access is fairly good.  Some back streets will easily lead to the nearby convention center.  For restaurants, gas, et al., one must continue north on the feeder, u-turn, and head back to the exit one step further southbound from the motel's exit.My reservation was in order, and I was given an upstairs room (by request).  There is no elevator, so one must haul luggage up the internal stairwell.  The desk personnel were helpful in answering my questions about the area.Rooms are off an interior, carpeted corridor.  Mine was comfortable, with everything new, working, and appealing.  This was the good part.What ruined everything was the overly aggressive housekeeping.  On Saturday morning, I had a "do not disturb" sign placed on my door.  The housekeeper pounded on the door, shouting "Housekeeping!"I returned that evening and found that my items had been moved around on the room's desk (there was no reason for this to be done) and that a high-quality hand-towel -- my own property -- had been taken out of my shaving-kit.  I was disturbed by this, but worse was to come.On Sunday morning, I was in the bathroom involved in personal activity and WELL ahead of formal checkout time.  Without knocking, and despite the "do not disturb," the housekeeper unlocked the door and barged in.  I said, "Hey -- HEY!"  She said, "What time you gonna be out?  I needa clean the room."  I said, "Within 90 minutes, probably -- please leave."  She said (direct quote!):  "Ninety minutes, no more."Had I not been indisposed, I would have shoved the insolent invader completely out of my room and given her the what-for.  As it was, I was shaking with anger.  When I checked out, I reported the facts and my displeasure to the front desk; the desk clerk looked scared and got the manager.  When I suggested that someone needed to educate the housekeeper about propriety and customer service, the manager got a genuine look of fear in his eyes.  He said, rather hastily, "We'll keep that in mind, sir," and he offered me a (ratty) hand-towel as recompense for the stolen one.  I declined it.Besides good or bad plumbing, nothing makes or wrecks a hotel stay like the aggressiveness or sensitivity of the housekeeping service...More</t>
+  </si>
+  <si>
+    <t>SneakinDeacon</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r4735727-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
@@ -1483,43 +1600,47 @@
       <c r="A2" t="n">
         <v>29686</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>132144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1537,56 +1658,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>29686</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>5237</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1604,56 +1729,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>29686</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>132145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1665,56 +1794,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>29686</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>132146</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1732,56 +1865,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>29686</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>132147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1793,56 +1930,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>29686</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>132148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1858,56 +1999,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>29686</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>132149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1923,56 +2068,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>29686</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>132150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1984,56 +2133,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>29686</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>132151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2053,50 +2206,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>29686</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>132152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2110,50 +2267,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>29686</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>132153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2171,50 +2332,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>29686</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>132154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2234,50 +2399,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>29686</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>1099</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2297,50 +2466,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>29686</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>41399</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2358,50 +2531,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>29686</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>132155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2415,50 +2592,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>29686</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>132156</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2478,41 +2659,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>29686</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>132157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
@@ -2531,50 +2716,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>29686</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>132158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2588,50 +2777,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>29686</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>119689</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2649,50 +2842,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>29686</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>8350</v>
+      </c>
+      <c r="C21" t="s">
+        <v>201</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2712,50 +2909,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>29686</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>45635</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2769,35 +2970,39 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>29686</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>1742</v>
+      </c>
+      <c r="C23" t="s">
+        <v>215</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -2805,10 +3010,10 @@
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2829,51 +3034,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>29686</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>132159</v>
+      </c>
+      <c r="C24" t="s">
+        <v>219</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2887,50 +3093,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>29686</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>2295</v>
+      </c>
+      <c r="C25" t="s">
+        <v>226</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="J25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="K25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2954,35 +3164,39 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>29686</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>19206</v>
+      </c>
+      <c r="C26" t="s">
+        <v>234</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -2990,10 +3204,10 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3014,51 +3228,52 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>29686</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>132160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>239</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="J27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="K27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3082,41 +3297,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>29686</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>10049</v>
+      </c>
+      <c r="C28" t="s">
+        <v>245</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="J28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
@@ -3145,50 +3364,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>29686</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>132161</v>
+      </c>
+      <c r="C29" t="s">
+        <v>252</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="J29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="K29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3212,50 +3435,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>29686</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>132162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>260</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="J30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3279,50 +3506,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>29686</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>132163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>267</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="J31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="K31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="L31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3346,50 +3577,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>29686</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>132164</v>
+      </c>
+      <c r="C32" t="s">
+        <v>274</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="J32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="K32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3403,50 +3638,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>29686</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>132165</v>
+      </c>
+      <c r="C33" t="s">
+        <v>281</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="J33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="K33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -3470,50 +3709,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>29686</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>132166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>288</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="K34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="L34" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="O34" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -3537,41 +3780,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>29686</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>132167</v>
+      </c>
+      <c r="C35" t="s">
+        <v>296</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="J35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
@@ -3596,50 +3843,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>29686</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>132168</v>
+      </c>
+      <c r="C36" t="s">
+        <v>302</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="J36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="K36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="O36" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -3663,50 +3914,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>29686</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>132169</v>
+      </c>
+      <c r="C37" t="s">
+        <v>310</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="J37" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="O37" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -3730,50 +3985,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>29686</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>132170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>318</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="J38" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="K38" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -3795,50 +4054,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>29686</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>132171</v>
+      </c>
+      <c r="C39" t="s">
+        <v>326</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="J39" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="K39" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="L39" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="O39" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -3860,41 +4123,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>29686</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>132172</v>
+      </c>
+      <c r="C40" t="s">
+        <v>334</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="J40" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="K40" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="L40" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -3921,7 +4188,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_199.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_199.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
   <si>
     <t>STR#</t>
   </si>
@@ -147,10 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>bejealous07</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/18/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r513944674-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
@@ -203,9 +200,6 @@
 My husband and I had to call Choice Hotels and file two official complaints before Heena even decided to take our calls and half...I am only giving this place a star because I have to.My husband and I went out for a fun date night and wanted to stay the night in a hotel and just spend a fun and easy night together.We call to make a reservation and advised the front desk we would pay in cash upon arrival. They advised they needed to have a card on file to hold the room. My husband gave them his debit card# and it got declined - we thought that was weird, but okay. We then used my credit card to hold the room. When we arrived, my husband paid them the cash for the room and was advised no charges were made to the room.WRONGThey actually charged my husbands debit card AND charged my credit card - not once, but TWICE for this room. They also charged my husband for the incorrect amount.The management was the ABSOLUTE WORST at getting this issue resolved. We were advised by the assistant manager Heena that we would need to speak with a Peter and he would be in the office from 9:30-11 am. I would call- and every time he would have left by 11am. At one point, an employee advised there was no manager named Peter.My husband and I had to call Choice Hotels and file two official complaints before Heena even decided to take our calls and half listen to us. We were also advised that Heena was in fact - the manager who could handle all of this.After having a $97 hold on my husbands card and a $160 hold on mine, plus the $85 we spent on the room, this hotel was looking at making a profit of almost $350.DO NOT - I REPEAT - DO NOT STAY HERE.This manager Heena is an absolute joke and should be fired for lying to their customers. We have tried for weeks to speak with them and have them refund our initial stay since their screw up cost us not to buy groceries for three weeks for our children and she has refused to communicate or make anything write.After filing so many complaints - she finally released the holds on mine and my husbands cards btw - took three weeks - but she finally did it - even though she lied and said she couldn't.So if you want to get screwed out of your money - DO NOT STAY HEREMore</t>
   </si>
   <si>
-    <t>J B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r513676679-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
 If you are not desperate for a...Arrived and found the place ok. The day time lady receptionist was miserable. She did not smile. She was rude in her delivery when speaking, all in all if she hates the job ( she displays that she does) she should leave and give someelse a chance of a job. The man in the afternoon shift wasn't much better but at least he sort of smiled. These people have to remember customers pay their salaries. A fact they appear to have forgotten. They also seem to forget there are loads of other hotels around this area so customers have a choice and don't need them or their hotel The room. Is ok and basic. No carpet on the floor, it has a type of false wood covering stuck on the floor. This is really dangerous when you step out of the shower with wet feet I nearly slide across the room and caused my self a lot of pain. Room cleanliness is ok. However out in the hall the carpet was very sticky and was horrible to walk on. The carpet in the hall was covered in mess. Miss miserable from downstairs saw This she. She came up stairs for her break step over it and walked into the staff room. She appeared to be not bothered about the mess. The room was supposed to be no smoking yet it stunk of smoke. If you are not desperate for a place to stay avoid this place there are plenty of other hotel around here who I am sure what your custom and give better service and value for money.More</t>
   </si>
   <si>
-    <t>godwetrust2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r505667286-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -264,9 +255,6 @@
     <t>unwelcoming at the desk. customer service iis not there. the agent spoke rudely with my partner just because the name on the reservation was miss spelled with an extra letter. the corridors had a musty scent that gave me a migrane. did not have a good night rest due to the lack of good ac. it was sweaty in the room and the ac made a loud noise. i requested to change rooms but the same gentleman refused since it was 30 mins after check in. never have i have been told of such policy. morning of the next day my partner was greeted with 3 roaches in the tub. we refused to shower there and checked out with a complaint to the manager regarding our visit.More</t>
   </si>
   <si>
-    <t>JRsNeighbor</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r505461861-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -282,9 +270,6 @@
     <t>We booked a double room last minute due to a power outage at our house. The room was a little beat up but overall clean. The beds are not as comfortable as I would have hoped and quite standard. The pillows are thin. There is a small area for a free breakfast. For the price, (insanely cheap) you can't beat it. You can hear a bit of road noise due to the close proximity to the highway but it wasn't terrible. Our check-in and out was very fast and parking was extremely close. if you are staying just a few hours and need a place for a shower and sleep then it's worth the price.More</t>
   </si>
   <si>
-    <t>Sfxmanager</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r498237616-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -309,9 +294,6 @@
     <t>Checked in at Midnight first thing when I got out of car was that Hotel Manager came from a car in the Parking area. Manager didn't have on a Econo Lodge Shirt or Polo. Check-in was fast and easy being a Choice Rewards member.  When walking to room 121 the halls smelled of the smoke. Room 121 was nice easy to access, bed was comfortable, but you could hear the room next door/above you/outside your window..  I had expected it to be quieter hotel due to the businesses in the areaMore</t>
   </si>
   <si>
-    <t>LuAnn3353</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r486551694-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -342,9 +324,6 @@
     <t>I apparently signed up for a smoking room online and wasn't aware of it.  I was glad that there was no carpeting in the room.  The bed was very comfortable and I got 3 good night's sleep on it.  I was going to look for another hotel because of the smoking room, but, after I slept well, I decided to stay.  The bedding was very clean.  The shower was huge, really like it.  The breakfast buffet was adequate, but would have been nice if there was some yogurt and fresh fruit.  There was two kind of juices, coffee, cereal, waffles, toast and danish.More</t>
   </si>
   <si>
-    <t>rbtelee1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r479244720-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -372,9 +351,6 @@
     <t>Hotel installed laminate flooring over old flooring and it is coming up and not a good job at all with gaps, etc. Installed without putting tape down first. Outlet between beds didn't work. Tried to give us a computer power cord as an extension cord. What they did end up giving us did not work. NO alarm clock in room. Smoky smell even in non-smoking area. Filthy hotel.More</t>
   </si>
   <si>
-    <t>Jonesnco</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r466680234-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -405,9 +381,6 @@
     <t>Dirty sheets, dirty room, stink of smoke in the non-smoking rooms, apathetic staff...everything in the previous negative reviews is true.  I left after I saw the room.  I ended up driving two miles to another Choice Hotel off the tollway.  It is twice the price but 10 times better.More</t>
   </si>
   <si>
-    <t>prov6</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r435448645-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -426,9 +399,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>JoyaTX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r385495432-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -447,9 +417,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>milehigh39</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r380620009-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -468,9 +435,6 @@
     <t>Arrived late Monday evening,TV did not work, remote cover missing could not turn in TV manually.Thermostat knob missing, could not adjust temp.Floors sticky.areaumdr TV set was dusty.scared to have any water.No brochures or phone book in room to find food for delivery.Bed felt like sleeping on a cot., could hear neighbors snoring.Felt like I was in a dorm in college.Was scheduled for two days, I checked out at 7 am to go elsewhere..This is a 19.99 per night rental if any.nI use Choice hotels many times and this is horrible,Advised person at front desk of problems, took notes and seemed as if oh well we got your money anyway.Internet did not appear to work.Room fridge would not cool beverages and had musty smell.More</t>
   </si>
   <si>
-    <t>Kon469</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r373508246-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -492,9 +456,6 @@
     <t>I prepaid for my stay two weeks in advance. They changed my room to a smoking on the first night and the second night I discovered bedbugs in my room! Ew! I notified the front desk and the night auditor's reaction let me know that this was not a new situation. The assistant manage was informed about the bedbugs and never tried to resolve the issue. The housekeepers made the beds and room up for resale knowing the situation. To make matters WORST, I've been contacting Choice Privileges since 05/07 for some resolve on this issue and all I've received is extremely long hold times, attitude, and the run around. Today alone, I held thirty minutes only for a rep named Walter to talked over me then hung up on me twice. Please don't waste your time with Choice Privileges and definitely not Econo Lodge.More</t>
   </si>
   <si>
-    <t>Angela B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r371721620-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -511,9 +472,6 @@
   </si>
   <si>
     <t>Check in was fast &amp; simple. A hold on my credit card over the amount of the regular charges. I went to the front desk &amp; was told the hold 10% over the regular charges &amp; a $50 incidental fee. I was shocked they would think that people would cause damage to the already damaged room. There were no drawers in the dresser. The closet door doesn't open &amp; I peeked through the crack &amp; it looks pretty scary. The tv worked but there's no guide so I couldn't tell what channel I was watching. The microwave &amp; fridge were in good condition. The room is the smallest room I've been in. I believe my balcony cabin on the cruise was larger. The ceiling &amp; wall had lots of patchwork. I wanted some free breakfast &amp; went to the lobby. I was not comfortable with the looks. I tried the coffee &amp; im sure it was mixed with urine or at least tasted nasty &amp; smelled like it. It also had a cloudy color. I went down the street for breakfast. Overall I think the rate should be cheaper, at least $40/night not $60. I travel a lot &amp; this was a pretty bad stay.More</t>
-  </si>
-  <si>
-    <t>Adam W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r370426163-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
@@ -546,9 +504,6 @@
 I paid for a budget hotel, so I wasn't expecting five stars, but there were definitely some room issues. In my room the air felt damp and there was a pretty bad smell that even strong air freshener couldn't overpower. I didn't want more air freshener, so I didn't make an issue out of this with the management. I am thinking it was probably coming from the...I was attending a business conference at the Renaissance just down the street, but decided to save money by staying here instead. (Stayed 3 nights)LOCATION:The hotel is located just off the highway, so it is not too hard to head either direction from this location. Note that rush hour traffic is very heavy in this area, so make sure your event is North if you are traveling during rush hour. There is a light rail just behind the hotel, but it is an electric train, so the noise is pretty minimal. It also does not sound a horn at the nearby crossing, so it did not bother me even though I am a light sleeper and was in a room facing the tracks.STAFF:I found the staff to be very helpful, cheerful, and responsive to issues. They replaced a light bulb right away, and noted a problem with the refrigerator when I brought it to their attention as I left. Definitely above average when it comes to customer service.ROOM:I paid for a budget hotel, so I wasn't expecting five stars, but there were definitely some room issues. In my room the air felt damp and there was a pretty bad smell that even strong air freshener couldn't overpower. I didn't want more air freshener, so I didn't make an issue out of this with the management. I am thinking it was probably coming from the carpet, but I wasn't going to put my nose in it to find out.  :-)  There was some damage to walls, curtains, furniture and the AC unit, but it was adequate for myself and another guy on a business trip.On a positive note, there were definitely upgrades being made. The florescent bulb was replaced with LED, the counter and fixtures were new, and the shower was new and quite nice. I think some of the rooms in the lower level have been remodeled recently as well, but this one obviously hadn't been finished yet.SUMMARY:I wouldn't take my wife here, but for a couple guys on a business trip, the location and the price was right. With the upgrades and remodeling in progress, this might improve a lot over the next few years, and I would definitely consider staying here again.More</t>
   </si>
   <si>
-    <t>Alexandria T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r367573963-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -567,9 +522,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>ashgin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r357720502-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -591,9 +543,6 @@
     <t>I stayed at the Econo Lodge when I was visiting for an academic conference at UTD in Feb '16. I was very skeptical after reading the reviews but found the place to be value for the money. Yes, you have a highway on one end and a light rail line on the other end - so the place can be inconvenient for light sleepers. I was mentally prepared for it and hence this did not bother me. Probably the fact that I was jet lagged also helped. The breakfast spread was not great, but you had coffee, bread, muffins, danish and there was a waffle maker - I think this was great considering the per day rate they charge! Also, I found Gary to be very helpful, contrary to what is mentioned in the other reviews. Overall, I would recommend the place for someone who needs a decent budget place to sleep.More</t>
   </si>
   <si>
-    <t>Hockeyboy37</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r355128239-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -609,9 +558,6 @@
     <t>As I look to find my way to my next home, I have been residing here for over a month.  At first, my choice was questionable, BUT...from then until now, I have to say, this has been an excellent motel for what they offer!  When you remember you are booking at an economic level, that makes all the difference.  If frills are needed, check elsewhere.  The desk and housekeeping staff have been GREAT!</t>
   </si>
   <si>
-    <t>Garrick W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r325265909-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -633,9 +579,6 @@
     <t>From the stained carpets, to the damaged rooms with holes in the walls and damaged appliances/furniture to the ridiculous excuse for breakfast and borderline rude staff this place is one of the worst hotels I've stayed at.  Was in town for a wedding and another groomsman booked the place so I was stuck for three long days.  The smoking rooms were not separate so the whole hotel was smokey.  50$/day was twice what this place should've been.  Breakfast was Frosted Flakes, prepackaged muffins, coffee and juice that was out and not restocked 2/3 days.  The showers had mold in the door frame.   The toilet was old and needy resetting after every other use.  I literally can't describe the other residents - it was clear people lived there.  Simply the worstFor families- go anywhere else-motel 6 had to be better.  The flag, econolodge, should be embarrassed by the horrible quality put forward by this location.  It literally probably has a 'by the hour' rate More</t>
   </si>
   <si>
-    <t>13bedbugz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r320845859-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -657,9 +600,6 @@
     <t>The rooms are small, BUT they are clean, smell wonderful, stylish, comfortable.  It is quiet there at night.  and in the Mornings it is like a family.  Brian does not come off like a GM he comes off more like the friends u have at home. He will talk to youu about sports, and always ask if you need anything.  He does not mind running and getting you a towel if the maids are off either.  There are 2 lounge areas and it is nice to have a homey type area to sit and visit in.   The maids speak English too and seem to mind you being there, plus they are nice.  The employees here seem like a blended family!  Plus you are next to the Dart Rail,  a Walking and Biking Trail sits behind.  It is pet friendly and just a $25 deposit.   The gym is as good as I have seen in fancy hotels.  They have Coffee 24/7... Ya can't go wrong!   Oh and Gary looks real serious but you can see in his eyes he has a great sense of humor and a kind heart.More</t>
   </si>
   <si>
-    <t>Greg P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r317207951-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -675,7 +615,91 @@
     <t>Low priced hotel in need of some attention.  Staff was OK, room was small and had some issues.  Musty smell from the AC, the desk chair was not stable, the tack strip separating the carpet from the tile in the bathroom was exposed, and painful when I stepped on it, the closet door would not close.  The shower door would not close, although the shower capsule was not like anything I had seen before and was a nice design.</t>
   </si>
   <si>
-    <t>Ryan V</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r308071230-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>308071230</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>In Desperate need of Renovation.</t>
+  </si>
+  <si>
+    <t>Room A/C was off and it took hours to cool the room down.  Pungent smell of pet dander and smoke.  Not a family friendly hotel.  Clientele tends to be somewhat rough.  This is for seasoned Road Warriors only.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r303289512-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>303289512</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honest opinion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's alright if you are only staying for a few hours. Got the 1 king suite. It is very noise but like I said it's alright if your staying for a few hours. I wouldn't sleep a night here. I haven't had any trouble with the employees. The check in was very fast. Bed sheets seem clean. TV is working. Lights working. Bathroom looks clean. </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r294803869-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>294803869</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Good Budget Hotel in Richardson</t>
+  </si>
+  <si>
+    <t>Stayed here for 6 nights and experience was good. Rooms were clean, comfortable beds. Breakfast was basic but good. Front desk manager was helpful and check in, check out was quick n easy.Would recommend this hotel for extended stay.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r294382492-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>294382492</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>The experience was terrible!! The room was hot and sticky feeling. It smelled like musk and the clientele was not family friendly. We stayed two hours and left. My husband and felt the the staff was not friendly or helpful. It was an awful experience and we drove till 12:30 am to find a Best Western in OK.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r272601331-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>272601331</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>Nasty place</t>
+  </si>
+  <si>
+    <t>this is by far, the worst place , we have ever stayed, the hall Carpet was stained beyond belief. Got to room, the commode seat was very stained, put toilet paper on it, to sit, the chair in the room was filthy, sat in office chair at the desk, and I guess it was fleas, that ate my legs up, thought about a shower, but decided against it, the shower door hasn't been cleaned in a very long time.We was in town for the nite, for a friends baby shower, couldn't find another room, because it was Saturday night, I Do Not recommend this hotel to anyone!!!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r255220632-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
@@ -699,9 +723,6 @@
     <t>I fully understand the market segment that Econolodge fills; the target guest that it appeals to. And no doubt there are a great many properties that do well at meeting this demand. That being said, my colleague and I stayed here one night due to a reservation mistake at our hotel of choice (it was a user error on our part.) Upon entering this Econolodge location I immediately smelled an odor reminiscent of strong chemicals. Almost as if the lobby and hallway were dowsed in cleaner. My room, standing in stark contrast to the hallway and lobby, was over saturated with air freshener. The room itself (along with the rest of the property, from what I could tell) had not been renovated in quite some time. This is no problem, as not every property has this luxury. However, when there are cracks in the shower floor and wallpaper and carpeting peeling off of the walls and foundation, it causes cleanliness issues, usability issues, and sometimes safety hazards. There are better properties in this are that can be sought out for reasonable prices. Skip this. More</t>
   </si>
   <si>
-    <t>Daniel C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r254884033-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -711,9 +732,6 @@
     <t>02/18/2015</t>
   </si>
   <si>
-    <t>Helena G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r253277126-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -732,9 +750,6 @@
     <t>I've recently stayed here with some family and there's just nothing really good about it. when you walk in you can already smell cigarettes the drawers are crooked, when you go upstairs there's a dip in the floor and if you're downstairs you can hear everyone walking upstairs-no sleep whatsoever. Temple Texas twist horrifying there is barely nothing all you had was muffins from still looking cereal and the milk was in a gallon bottle everyone practically shared. The toilet wasn't  hinged on right, the shower leaked and when the water came out of the shower head it was hard and unevenly squirting. Don't stay here unless you wanna hear people comment on how it smells like weed.More</t>
   </si>
   <si>
-    <t>Eric K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r193443442-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -756,9 +771,6 @@
     <t>I recently stayed in Richardson, because I needed to do a show in Frisco, Texas. It was only a 30 minute drive, and I didn't need to be there until afternoon, so it worked out great. Very helpful staff, Gary, made it a speedy check-in when I arrived in the afternoon. Very nice room, clean, and felt at peace when I got there. Even drank some fresh coffee from lobby. Didn't visit any restaurants, I was tired from drive from San Antonio. In the morning, I ate breakfast, continental. Easy and fast service when I checked out with Brian. Highway was very accessible, to get to where I needed to go, north. Also, loved the shower, this facility used to be a Sleep Inn Suites Hotel.More</t>
   </si>
   <si>
-    <t>Donna L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r172842202-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -771,9 +783,6 @@
     <t>August 2013</t>
   </si>
   <si>
-    <t>RogerTheChipGuy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r172135395-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -787,9 +796,6 @@
   </si>
   <si>
     <t>What do you expect for $54....Plusses: It was inexpensive and near the freeway. Bed was clean. Had a refrigerator in the room. Minuses: Ice machine didn't work (at least the two times I tried it). Juice machine didn't work. Stairs were narrow. Shower door wouldn't close. Hole in the wall near vanity(about the size of a coathook, which was probably hung there). Breakfast was cereal, danish and toast and they were almost out of milk (there may have been more in the back). If you're passing through or on a business trip it's okay. I wouldn't take a family there.</t>
-  </si>
-  <si>
-    <t>Melinda W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r158344400-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
@@ -822,9 +828,6 @@
 *when you flush the...Let me begin with stating due to current circumstances, I was left with no choice but to lodge at this hotel. This is my 5th week here in this Awful place. The daytime staff is very nice and chipper...to say the least. However,  the night shift employees are exteamly uncouth! Two employees seem to alternate during the week. One, sleeps the whole time. If you need your key card reprogramed, its like waking a beast. His eyes are always bloodshot like he smoked an ounce of marijuana before work. The second employee lacks manners and is a far cry from polite. If you do decide to stay here, do try to refrain from any and all complaints as you will end up with a finger in your face whilst being barked at. Dont even try and explain yourself to this one...he obviously is uneducated and probably wont understand what you are saying anyway. It will only result in you being insulted and laughed at. After him not understanding me I obviously told him he didnt n began reiterating myself only to be cursed and yelled at. I can go on for ages about how insulting he is, but im sure you get the point..total lack of respect..The rooms...So when you first walk in the room doesnt aplear to be all that bad....until..*you close the door and find a gaping hole in the wall*when you flush the toilet water floods the bathroom*The ac works sometimes..however im not sure if id want mold, mildew and whatever else circulating through the room.*you go to take a shower and find the shower head covered in mold and mildew.*blood stains, burnholes and tears in the linen*only half the lighting works*slow slow slow internet*dust EVERYWHERE*outlets that shock you when you ATTEMPT to plug something in...yes, attempt...the devices never remain plugged in and fall out of the socket.*The power goes out frequentlyNow for the rest...yes..more!Unless you are a heavy sleeper, youll never sleep. Doors are being slammed NON STOP! There are always parties in the parking lot. The glass was smashed out of the side door. You hear couples arguing loudly all night. To sum it up...you would have to be ABSOLUTELY PSYCHOTIC to stay here. If you are like me and have a pet (I have a 3lb chi) and are left with no other option but to stay here, PLEASE do NOT bring your children. I will try to post pics along with my review.More</t>
   </si>
   <si>
-    <t>randy H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r153698865-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -846,9 +849,6 @@
     <t>conventionality located just feet from a busy highway and on the other side is a train that runs all night! no sleep!don't get a room near the lobby on the first floor or you will have the pleasure of hearing patrons fight over the last 3 day old bagel at the continental breakfast from 6am - 10amkeys never work, i know this can be a problem at many places but  here i had to get my key redone 12 times on a 2 day stay. when you walk in the front door it smells like a smoking facility, sheets had cigarette burns throughout.turned on the AC and cigarette ashes blew out in a non smoking room i was able to change roomsthen they gave us a room that was still being cleaned but that was just an honest mistake. good things: staff was nice because they knew the place sucks and they seem used to dealing with  problems , room was cheap, if you do stay here... dont!More</t>
   </si>
   <si>
-    <t>MrUniqueBond</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r151501025-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -867,9 +867,6 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>coquiOmaha</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r132945787-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -888,9 +885,6 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>MITEMAN</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r63733933-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -909,9 +903,6 @@
     <t>April 2010</t>
   </si>
   <si>
-    <t>memawvicki</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r42710330-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -930,9 +921,6 @@
     <t>September 2009</t>
   </si>
   <si>
-    <t>falbertoh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r22984331-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -954,9 +942,6 @@
     <t>I stayed here with my brother back in October.  I had read the reviews stating how the property had been renovated and with having to stay in hotel for 10 days for training we decided to take a chance and save some money by staying there.  BIG MISTAKE!  The room was fine, I don't need 5 star treatment to be happy.  It would have been nice if the toilet didn't run off and on all night but we would survive.  About half way through our stay I realized I was missing a blanket in my bed.  I asked the maid for a blanket and it was there that night.  That would have been great service if the blanket hadn't been infested with bed bugs.  I woke up the next morning covered in bites.  I had bites allover my body from my neck down.  They moved my room and while that one didn't have bed bugs the bathroom door didn't close and the shower door had a hole.  The next day the sores got worse, made training unbearable and I was forced to seek medical help.  By the time I got back to the room I had had enough, packed up my belongings and left.  I would have left it at that but they decided to charge me for my full stay and never even contacted me to apologize or make amends.  I contacted the hotel but all I have recieved...I stayed here with my brother back in October.  I had read the reviews stating how the property had been renovated and with having to stay in hotel for 10 days for training we decided to take a chance and save some money by staying there.  BIG MISTAKE!  The room was fine, I don't need 5 star treatment to be happy.  It would have been nice if the toilet didn't run off and on all night but we would survive.  About half way through our stay I realized I was missing a blanket in my bed.  I asked the maid for a blanket and it was there that night.  That would have been great service if the blanket hadn't been infested with bed bugs.  I woke up the next morning covered in bites.  I had bites allover my body from my neck down.  They moved my room and while that one didn't have bed bugs the bathroom door didn't close and the shower door had a hole.  The next day the sores got worse, made training unbearable and I was forced to seek medical help.  By the time I got back to the room I had had enough, packed up my belongings and left.  I would have left it at that but they decided to charge me for my full stay and never even contacted me to apologize or make amends.  I contacted the hotel but all I have recieved is the run around and empty promises.  I am now considering legal action to recoup my hotel and medical charges.  Spend the extra money and stay elsewhere.More</t>
   </si>
   <si>
-    <t>Kristin1023</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r19864931-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -972,9 +957,6 @@
     <t>The EconoLodge...when through a Renovation my room included 32 LCD TV, new beds, new carpet and comforter...Everyone should try this hotel.....You will be surprised!</t>
   </si>
   <si>
-    <t>SpellAmarillo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r13833077-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -996,9 +978,6 @@
     <t>We stayed in this hotel last week and it was the worst hotel I have been in- ever. They are going through a remodel and there was dust and plastic over everything in the lobby. Originally, we thought if they were going through a remodel that the rooms were probably OK and they would put us in a remodeled room. Wrong! Our room was recently painted (within 48 hours). You could tell by the smell. However, painters had walked through the paint and our carpet was covered in paint footprints. The comforter had cigarette burn holes in them. The bathroom sink was stained and wouldn't drain. The most nasty thing was the shower. It looked OK from the outside, but when you got in, there was at least an inch of mold all the way around the shower door. I thought I would die. I stood on a washcloth while taking  a shower for our business conference that day. The rooms going down the hall didn't seem much better. The wireless internet was out, and there was no place for the "continental breakfast" so you had to eat it in your nasty room. As I said, choose somewhere else and avoid this horrible property. I called and registered a complaint with the company.More</t>
   </si>
   <si>
-    <t>newbydd</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r12990866-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1020,9 +999,6 @@
     <t>Pardon the pun, but this hotel was anything but "suite"!  What's the saying......"you get what you pay for"?   I didn't have high expectations as I knew this was nothing fancy by the price of the room.  I was just looking for a place to stay for a couple of nights while attending a seminar at the Rennaissance Hotel, just a couple of blocks away.  This hotel is obviously an older hotel.  The room, as well as the hotel lobby, was dark and dingy and had a stale, musty odor.   They were, however, doing some remodeling so maybe it will be better for future guests.  During this stay though, I was not impressed.More</t>
   </si>
   <si>
-    <t>reggieRichardson</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r8119489-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1042,9 +1018,6 @@
   </si>
   <si>
     <t>We were only in the hotel for one hour. It was awful. The corridors reeked of cigarettes. The non smoking room smelled just as bad. The room was very hot, the air conditioner was old and weak. In the room, the bed headboard had fallen to the floor,  leaving screws in the wall over the bed, torn off wallpaper, patched holes, missing pictures accented the walls, the shower door did not latch closed and the shower fixtures were broken off.All of this for 49.99 plus tax. The desk clerk attempted to give us another room, but it just smelled so bad in the hotel that we declined. We were denied cancellation of the room, and were told they did not issue credits or refunds. We left and stayed in another hotel.More</t>
-  </si>
-  <si>
-    <t>TBoneTX</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r4741324-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
@@ -1065,7 +1038,7 @@
 Rooms are off an interior, carpeted corridor.  Mine was comfortable, with everything new, working, and appealing.  This was the good part.
 What ruined everything was the overly aggressive housekeeping.  On Saturday morning, I had a "do not disturb" sign placed on my door.  The housekeeper pounded on the door, shouting "Housekeeping!"
 I returned that evening and found that my items had been moved around on the room's desk (there was no reason for this to be done) and that a high-quality hand-towel -- my own property -- had been taken out of my shaving-kit.  I was disturbed by this, but worse was to come.
-On Sunday morning, I was in the bathroom involved...I stayed in this EconoLodge (previously a Sleep Inn, and this wasn't clear via ANY web-search -- required a phone call to the motel) for two nights in March 2004 -- check-in Friday afternoon, checkout Sunday morning.The motel is on a highway feeder, and northbound access is fairly good.  Some back streets will easily lead to the nearby convention center.  For restaurants, gas, et al., one must continue north on the feeder, u-turn, and head back to the exit one step further southbound from the motel's exit.My reservation was in order, and I was given an upstairs room (by request).  There is no elevator, so one must haul luggage up the internal stairwell.  The desk personnel were helpful in answering my questions about the area.Rooms are off an interior, carpeted corridor.  Mine was comfortable, with everything new, working, and appealing.  This was the good part.What ruined everything was the overly aggressive housekeeping.  On Saturday morning, I had a "do not disturb" sign placed on my door.  The housekeeper pounded on the door, shouting "Housekeeping!"I returned that evening and found that my items had been moved around on the room's desk (there was no reason for this to be done) and that a high-quality hand-towel -- my own property -- had been taken out of my shaving-kit.  I was disturbed by this, but worse was to come.On Sunday morning, I was in the bathroom involved in personal activity and WELL ahead of formal checkout time.  Without knocking, and despite the "do not disturb," the housekeeper unlocked the door and barged in.  I said, "Hey -- HEY!"  She said, "What time you gonna be out?  I needa clean the room."  I said, "Within 90 minutes, probably -- please leave."  She said (direct quote!):  "Ninety minutes, no more."Had I not been indisposed, I would have shoved the insolent invader completely out of my room and given her the what-for.  As it was, I was shaking with anger.  When I checked out, I reported the facts and my displeasure to the front desk; the desk clerk looked scared and got the manager.  When I suggested that someone needed to educate the housekeeper about propriety and customer service, the manager got a genuine look of fear in his eyes.  He said, rather hastily, "We'll keep that in mind, sir," and he offered me a (ratty) hand-towel as recompense for the stolen one.  I declined it.Besides good or bad plumbing, nothing makes or wrecks a hotel stay like the aggressiveness or sensitivity of the housekeeping service...MoreShow less</t>
+On Sunday morning, I was in the bathroom involved...I stayed in this EconoLodge (previously a Sleep Inn, and this wasn't clear via ANY web-search -- required a phone call to the motel) for two nights in March 2004 -- check-in Friday afternoon, checkout Sunday morning.The motel is on a highway feeder, and northbound access is fairly good.  Some back streets will easily lead to the nearby convention center.  For restaurants, gas, et al., one must continue north on the feeder, u-turn, and head back to the exit one step further southbound from the motel's exit.My reservation was in order, and I was given an upstairs room (by request).  There is no elevator, so one must haul luggage up the internal stairwell.  The desk personnel were helpful in answering my questions about the area.Rooms are off an interior, carpeted corridor.  Mine was comfortable, with everything new, working, and appealing.  This was the good part.What ruined everything was the overly aggressive housekeeping.  On Saturday morning, I had a "do not disturb" sign placed on my door.  The housekeeper pounded on the door, shouting "Housekeeping!"I returned that evening and found that my items had been moved around on the room's desk (there was no reason for this to be done) and that a high-quality hand-towel -- my own property -- had been taken out of my shaving-kit.  I was disturbed by this, but worse was to come.On Sunday morning, I was in the bathroom involved in personal activity and WELL ahead of formal checkout time.  Without knocking, and despite the "do not disturb," the housekeeper unlocked the door and barged in.  I said, "Hey -- HEY!"  She said, "What time you gonna be out?  I needa clean the room."  I said, "Within 90 minutes, probably -- please leave."  She said (direct quote!):  "Ninety minutes, no more."Had I not been indisposed, I would have shoved the insolent invader completely out of my room and given her the what-for.  As it was, I was shaking with anger.  When I checked out, I reported the facts and my displeasure to the front desk; the desk clerk looked scared and got the manager.  When I suggested that someone needed to educate the housekeeper about propriety and customer service, the manager got a genuine look of fear in his eyes.  He said, rather hastily, "We'll keep that in mind, sir," and he offered me a (ratty) hand-towel as recompense for the stolen one.  I declined it.Besides good or bad plumbing, nothing makes or wrecks a hotel stay like the aggressiveness or sensitivity of the housekeeping service.  I would NOT stay here again unless it were confirmed to me in advance that this maid no longer worked here.MoreShow less</t>
   </si>
   <si>
     <t>March 2004</t>
@@ -1077,10 +1050,7 @@
 Rooms are off an interior, carpeted corridor.  Mine was comfortable, with everything new, working, and appealing.  This was the good part.
 What ruined everything was the overly aggressive housekeeping.  On Saturday morning, I had a "do not disturb" sign placed on my door.  The housekeeper pounded on the door, shouting "Housekeeping!"
 I returned that evening and found that my items had been moved around on the room's desk (there was no reason for this to be done) and that a high-quality hand-towel -- my own property -- had been taken out of my shaving-kit.  I was disturbed by this, but worse was to come.
-On Sunday morning, I was in the bathroom involved...I stayed in this EconoLodge (previously a Sleep Inn, and this wasn't clear via ANY web-search -- required a phone call to the motel) for two nights in March 2004 -- check-in Friday afternoon, checkout Sunday morning.The motel is on a highway feeder, and northbound access is fairly good.  Some back streets will easily lead to the nearby convention center.  For restaurants, gas, et al., one must continue north on the feeder, u-turn, and head back to the exit one step further southbound from the motel's exit.My reservation was in order, and I was given an upstairs room (by request).  There is no elevator, so one must haul luggage up the internal stairwell.  The desk personnel were helpful in answering my questions about the area.Rooms are off an interior, carpeted corridor.  Mine was comfortable, with everything new, working, and appealing.  This was the good part.What ruined everything was the overly aggressive housekeeping.  On Saturday morning, I had a "do not disturb" sign placed on my door.  The housekeeper pounded on the door, shouting "Housekeeping!"I returned that evening and found that my items had been moved around on the room's desk (there was no reason for this to be done) and that a high-quality hand-towel -- my own property -- had been taken out of my shaving-kit.  I was disturbed by this, but worse was to come.On Sunday morning, I was in the bathroom involved in personal activity and WELL ahead of formal checkout time.  Without knocking, and despite the "do not disturb," the housekeeper unlocked the door and barged in.  I said, "Hey -- HEY!"  She said, "What time you gonna be out?  I needa clean the room."  I said, "Within 90 minutes, probably -- please leave."  She said (direct quote!):  "Ninety minutes, no more."Had I not been indisposed, I would have shoved the insolent invader completely out of my room and given her the what-for.  As it was, I was shaking with anger.  When I checked out, I reported the facts and my displeasure to the front desk; the desk clerk looked scared and got the manager.  When I suggested that someone needed to educate the housekeeper about propriety and customer service, the manager got a genuine look of fear in his eyes.  He said, rather hastily, "We'll keep that in mind, sir," and he offered me a (ratty) hand-towel as recompense for the stolen one.  I declined it.Besides good or bad plumbing, nothing makes or wrecks a hotel stay like the aggressiveness or sensitivity of the housekeeping service...More</t>
-  </si>
-  <si>
-    <t>SneakinDeacon</t>
+On Sunday morning, I was in the bathroom involved...I stayed in this EconoLodge (previously a Sleep Inn, and this wasn't clear via ANY web-search -- required a phone call to the motel) for two nights in March 2004 -- check-in Friday afternoon, checkout Sunday morning.The motel is on a highway feeder, and northbound access is fairly good.  Some back streets will easily lead to the nearby convention center.  For restaurants, gas, et al., one must continue north on the feeder, u-turn, and head back to the exit one step further southbound from the motel's exit.My reservation was in order, and I was given an upstairs room (by request).  There is no elevator, so one must haul luggage up the internal stairwell.  The desk personnel were helpful in answering my questions about the area.Rooms are off an interior, carpeted corridor.  Mine was comfortable, with everything new, working, and appealing.  This was the good part.What ruined everything was the overly aggressive housekeeping.  On Saturday morning, I had a "do not disturb" sign placed on my door.  The housekeeper pounded on the door, shouting "Housekeeping!"I returned that evening and found that my items had been moved around on the room's desk (there was no reason for this to be done) and that a high-quality hand-towel -- my own property -- had been taken out of my shaving-kit.  I was disturbed by this, but worse was to come.On Sunday morning, I was in the bathroom involved in personal activity and WELL ahead of formal checkout time.  Without knocking, and despite the "do not disturb," the housekeeper unlocked the door and barged in.  I said, "Hey -- HEY!"  She said, "What time you gonna be out?  I needa clean the room."  I said, "Within 90 minutes, probably -- please leave."  She said (direct quote!):  "Ninety minutes, no more."Had I not been indisposed, I would have shoved the insolent invader completely out of my room and given her the what-for.  As it was, I was shaking with anger.  When I checked out, I reported the facts and my displeasure to the front desk; the desk clerk looked scared and got the manager.  When I suggested that someone needed to educate the housekeeper about propriety and customer service, the manager got a genuine look of fear in his eyes.  He said, rather hastily, "We'll keep that in mind, sir," and he offered me a (ratty) hand-towel as recompense for the stolen one.  I declined it.Besides good or bad plumbing, nothing makes or wrecks a hotel stay like the aggressiveness or sensitivity of the housekeeping service.  I would NOT stay here again unless it were confirmed to me in advance that this maid no longer worked here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109033-r4735727-Econo_Lodge_Inn_Suites-Richardson_Texas.html</t>
@@ -1600,47 +1570,43 @@
       <c r="A2" t="n">
         <v>29686</v>
       </c>
-      <c r="B2" t="n">
-        <v>132144</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1658,60 +1624,56 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>29686</v>
       </c>
-      <c r="B3" t="n">
-        <v>5237</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
-      </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1729,60 +1691,56 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
         <v>54</v>
       </c>
-      <c r="X3" t="s">
-        <v>55</v>
-      </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>29686</v>
       </c>
-      <c r="B4" t="n">
-        <v>132145</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1794,60 +1752,56 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>29686</v>
       </c>
-      <c r="B5" t="n">
-        <v>132146</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1865,60 +1819,56 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="X5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>29686</v>
       </c>
-      <c r="B6" t="n">
-        <v>132147</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
         <v>52</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1930,60 +1880,56 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>29686</v>
       </c>
-      <c r="B7" t="n">
-        <v>132148</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1999,60 +1945,56 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>29686</v>
       </c>
-      <c r="B8" t="n">
-        <v>132149</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2068,60 +2010,56 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>29686</v>
       </c>
-      <c r="B9" t="n">
-        <v>132150</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2133,60 +2071,56 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>29686</v>
       </c>
-      <c r="B10" t="n">
-        <v>132151</v>
-      </c>
-      <c r="C10" t="s">
-        <v>121</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2206,54 +2140,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>29686</v>
       </c>
-      <c r="B11" t="n">
-        <v>132152</v>
-      </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2267,54 +2197,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>29686</v>
       </c>
-      <c r="B12" t="n">
-        <v>132153</v>
-      </c>
-      <c r="C12" t="s">
-        <v>135</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2332,54 +2258,50 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>29686</v>
       </c>
-      <c r="B13" t="n">
-        <v>132154</v>
-      </c>
-      <c r="C13" t="s">
-        <v>142</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2399,54 +2321,50 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>29686</v>
       </c>
-      <c r="B14" t="n">
-        <v>1099</v>
-      </c>
-      <c r="C14" t="s">
-        <v>150</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2466,54 +2384,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>29686</v>
       </c>
-      <c r="B15" t="n">
-        <v>41399</v>
-      </c>
-      <c r="C15" t="s">
-        <v>157</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2531,54 +2445,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>29686</v>
       </c>
-      <c r="B16" t="n">
-        <v>132155</v>
-      </c>
-      <c r="C16" t="s">
-        <v>164</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2592,54 +2502,50 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>29686</v>
       </c>
-      <c r="B17" t="n">
-        <v>132156</v>
-      </c>
-      <c r="C17" t="s">
-        <v>171</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2659,45 +2565,41 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>29686</v>
       </c>
-      <c r="B18" t="n">
-        <v>132157</v>
-      </c>
-      <c r="C18" t="s">
-        <v>179</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
@@ -2716,54 +2618,50 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>29686</v>
       </c>
-      <c r="B19" t="n">
-        <v>132158</v>
-      </c>
-      <c r="C19" t="s">
-        <v>185</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2777,54 +2675,50 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>29686</v>
       </c>
-      <c r="B20" t="n">
-        <v>119689</v>
-      </c>
-      <c r="C20" t="s">
-        <v>193</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2842,54 +2736,50 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>29686</v>
       </c>
-      <c r="B21" t="n">
-        <v>8350</v>
-      </c>
-      <c r="C21" t="s">
-        <v>201</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2909,55 +2799,47 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>29686</v>
       </c>
-      <c r="B22" t="n">
-        <v>45635</v>
-      </c>
-      <c r="C22" t="s">
-        <v>207</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="s">
-        <v>213</v>
-      </c>
-      <c r="O22" t="s">
-        <v>117</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
@@ -2970,193 +2852,182 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>29686</v>
       </c>
-      <c r="B23" t="n">
-        <v>1742</v>
-      </c>
-      <c r="C23" t="s">
-        <v>215</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
-      </c>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="K23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23" t="s">
+        <v>196</v>
+      </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>29686</v>
       </c>
-      <c r="B24" t="n">
-        <v>132159</v>
-      </c>
-      <c r="C24" t="s">
-        <v>219</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>29686</v>
       </c>
-      <c r="B25" t="n">
-        <v>2295</v>
-      </c>
-      <c r="C25" t="s">
-        <v>226</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="J25" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="K25" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="O25" t="s">
-        <v>117</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3164,325 +3035,288 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>29686</v>
       </c>
-      <c r="B26" t="n">
-        <v>19206</v>
-      </c>
-      <c r="C26" t="s">
-        <v>234</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
-      </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="O26" t="s">
-        <v>96</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>29686</v>
       </c>
-      <c r="B27" t="n">
-        <v>132160</v>
-      </c>
-      <c r="C27" t="s">
-        <v>239</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="J27" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s">
-        <v>117</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>3</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>29686</v>
       </c>
-      <c r="B28" t="n">
-        <v>10049</v>
-      </c>
-      <c r="C28" t="s">
-        <v>245</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
-      </c>
-      <c r="K28" t="s">
-        <v>249</v>
-      </c>
-      <c r="L28" t="s">
-        <v>250</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
       <c r="M28" t="n">
-        <v>2</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
-      <c r="Y28" t="s">
-        <v>251</v>
-      </c>
+      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>29686</v>
       </c>
-      <c r="B29" t="n">
-        <v>132161</v>
-      </c>
-      <c r="C29" t="s">
-        <v>252</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
       <c r="I29" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="J29" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="K29" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>29686</v>
       </c>
-      <c r="B30" t="n">
-        <v>132162</v>
-      </c>
-      <c r="C30" t="s">
-        <v>260</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
         <v>46</v>
       </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="J30" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="K30" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3506,187 +3340,175 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>29686</v>
       </c>
-      <c r="B31" t="n">
-        <v>132163</v>
-      </c>
-      <c r="C31" t="s">
-        <v>267</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
         <v>46</v>
       </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="J31" t="s">
-        <v>270</v>
-      </c>
-      <c r="K31" t="s">
-        <v>271</v>
-      </c>
-      <c r="L31" t="s">
-        <v>272</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
-      <c r="Y31" t="s">
-        <v>272</v>
-      </c>
+      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>29686</v>
       </c>
-      <c r="B32" t="n">
-        <v>132164</v>
-      </c>
-      <c r="C32" t="s">
-        <v>274</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
         <v>46</v>
       </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
       <c r="I32" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="J32" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="K32" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s">
-        <v>96</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>29686</v>
       </c>
-      <c r="B33" t="n">
-        <v>132165</v>
-      </c>
-      <c r="C33" t="s">
-        <v>281</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
         <v>46</v>
       </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
       <c r="I33" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="J33" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="K33" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s">
-        <v>287</v>
-      </c>
-      <c r="O33" t="s">
-        <v>63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="n">
         <v>1</v>
       </c>
@@ -3694,14 +3516,14 @@
         <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3709,70 +3531,66 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>29686</v>
       </c>
-      <c r="B34" t="n">
-        <v>132166</v>
-      </c>
-      <c r="C34" t="s">
-        <v>288</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
         <v>46</v>
       </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
       <c r="I34" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="J34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="O34" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
         <v>2</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3780,133 +3598,133 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>29686</v>
       </c>
-      <c r="B35" t="n">
-        <v>132167</v>
-      </c>
-      <c r="C35" t="s">
-        <v>296</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
         <v>46</v>
       </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="J35" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="K35" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>266</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
         <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>29686</v>
       </c>
-      <c r="B36" t="n">
-        <v>132168</v>
-      </c>
-      <c r="C36" t="s">
-        <v>302</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
         <v>46</v>
       </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
       <c r="I36" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="J36" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="K36" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="O36" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3914,125 +3732,107 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>29686</v>
       </c>
-      <c r="B37" t="n">
-        <v>132169</v>
-      </c>
-      <c r="C37" t="s">
-        <v>310</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
       <c r="I37" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="J37" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="K37" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="L37" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="O37" t="s">
-        <v>117</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>29686</v>
       </c>
-      <c r="B38" t="n">
-        <v>132170</v>
-      </c>
-      <c r="C38" t="s">
-        <v>318</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
       <c r="I38" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="J38" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="K38" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -4041,77 +3841,77 @@
         <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
       </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>29686</v>
       </c>
-      <c r="B39" t="n">
-        <v>132171</v>
-      </c>
-      <c r="C39" t="s">
-        <v>326</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
         <v>46</v>
       </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
       <c r="I39" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="J39" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="K39" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="O39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -4123,45 +3923,41 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>29686</v>
       </c>
-      <c r="B40" t="n">
-        <v>132172</v>
-      </c>
-      <c r="C40" t="s">
-        <v>334</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
         <v>46</v>
       </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
       <c r="I40" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="J40" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="K40" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="L40" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -4172,23 +3968,346 @@
         <v>4</v>
       </c>
       <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
         <v>4</v>
       </c>
-      <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>4</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>339</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>29686</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>297</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>298</v>
+      </c>
+      <c r="J41" t="s">
+        <v>299</v>
+      </c>
+      <c r="K41" t="s">
+        <v>300</v>
+      </c>
+      <c r="L41" t="s">
+        <v>301</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>302</v>
+      </c>
+      <c r="O41" t="s">
+        <v>109</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>29686</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>304</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>305</v>
+      </c>
+      <c r="J42" t="s">
+        <v>306</v>
+      </c>
+      <c r="K42" t="s">
+        <v>307</v>
+      </c>
+      <c r="L42" t="s">
+        <v>308</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>309</v>
+      </c>
+      <c r="O42" t="s">
+        <v>109</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>29686</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>311</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>312</v>
+      </c>
+      <c r="J43" t="s">
+        <v>313</v>
+      </c>
+      <c r="K43" t="s">
+        <v>314</v>
+      </c>
+      <c r="L43" t="s">
+        <v>315</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>316</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>29686</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>318</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>319</v>
+      </c>
+      <c r="J44" t="s">
+        <v>320</v>
+      </c>
+      <c r="K44" t="s">
+        <v>321</v>
+      </c>
+      <c r="L44" t="s">
+        <v>322</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>323</v>
+      </c>
+      <c r="O44" t="s">
+        <v>109</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>29686</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>326</v>
+      </c>
+      <c r="J45" t="s">
+        <v>327</v>
+      </c>
+      <c r="K45" t="s">
+        <v>328</v>
+      </c>
+      <c r="L45" t="s">
+        <v>329</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
